--- a/dmsan/reclaimer/scores/India/sys_uncertainties.xlsx
+++ b/dmsan/reclaimer/scores/India/sys_uncertainties.xlsx
@@ -19423,7 +19423,7 @@
         <v>177.8900663956708</v>
       </c>
       <c r="I8" t="n">
-        <v>35.89976131113445</v>
+        <v>35.89976131113444</v>
       </c>
     </row>
     <row r="9">
